--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>email</t>
   </si>
@@ -20,15 +20,6 @@
   </si>
   <si>
     <t>expected</t>
-  </si>
-  <si>
-    <t>venkatjillela2210@gmail.com</t>
-  </si>
-  <si>
-    <t>Venky@1234</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
   <si>
     <t xml:space="preserve">admin@yourstore.com </t>
@@ -42,12 +33,21 @@
   <si>
     <t>adm@yourstore.com</t>
   </si>
+  <si>
+    <t>Venky@1234</t>
+  </si>
+  <si>
+    <t>venkatjillela2210@gmail.com</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -61,6 +61,7 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <u/>
       <sz val="14.0"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -71,10 +72,14 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <u/>
       <sz val="14.0"/>
       <color theme="10"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -91,7 +96,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border/>
     <border>
       <left style="thin">
@@ -107,25 +112,30 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -133,6 +143,13 @@
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -352,14 +369,14 @@
     <col customWidth="1" min="1" max="1" width="37.71"/>
     <col customWidth="1" min="2" max="2" width="21.86"/>
     <col customWidth="1" min="3" max="3" width="22.0"/>
-    <col customWidth="1" min="4" max="26" width="8.71"/>
+    <col customWidth="1" min="4" max="6" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -367,49 +384,75 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>8</v>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
+    <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
@@ -1389,11 +1432,10 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A3"/>
-    <hyperlink r:id="rId2" ref="A4"/>
+    <hyperlink r:id="rId1" ref="A2"/>
+    <hyperlink r:id="rId2" ref="A3"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
